--- a/云音乐数据库设计.xlsx
+++ b/云音乐数据库设计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="185">
   <si>
     <t>用户表user</t>
   </si>
@@ -43,7 +43,10 @@
     <t>id</t>
   </si>
   <si>
-    <t>long</t>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>用户唯一标识</t>
@@ -88,9 +91,6 @@
     <t>头像url</t>
   </si>
   <si>
-    <t>""</t>
-  </si>
-  <si>
     <t>gender</t>
   </si>
   <si>
@@ -109,6 +109,9 @@
     <t>tel</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>用户手机号码</t>
   </si>
   <si>
@@ -121,7 +124,7 @@
     <t>用户地址</t>
   </si>
   <si>
-    <t>discription</t>
+    <t>description</t>
   </si>
   <si>
     <t>用户描述，简介</t>
@@ -130,13 +133,13 @@
     <t>register_time</t>
   </si>
   <si>
-    <t>date</t>
+    <t>timestamp</t>
   </si>
   <si>
     <t>注册时间</t>
   </si>
   <si>
-    <t>当天</t>
+    <t>current_timestamp</t>
   </si>
   <si>
     <t>notification</t>
@@ -145,7 +148,10 @@
     <t>json</t>
   </si>
   <si>
-    <t>允许通知类型</t>
+    <t>允许通知类型
+{"私信":0,
+"点赞通知":1,
+"评论回复":1}</t>
   </si>
   <si>
     <t>birthday</t>
@@ -154,9 +160,6 @@
     <t>用户生日</t>
   </si>
   <si>
-    <t>0-0-0</t>
-  </si>
-  <si>
     <t>moment_number</t>
   </si>
   <si>
@@ -175,6 +178,12 @@
     <t>粉丝人数</t>
   </si>
   <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>用户标签</t>
+  </si>
+  <si>
     <t>歌手表singer</t>
   </si>
   <si>
@@ -199,13 +208,16 @@
     <t>歌手地址</t>
   </si>
   <si>
-    <t>描述，简介</t>
-  </si>
-  <si>
-    <t>introduction</t>
-  </si>
-  <si>
-    <t>如果是歌手的话，歌手的介绍</t>
+    <t>简介</t>
+  </si>
+  <si>
+    <t>authentication</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>是否认证</t>
   </si>
   <si>
     <t>user_id</t>
@@ -214,12 +226,6 @@
     <t>歌手的普通用户id</t>
   </si>
   <si>
-    <t>歌手生日</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
     <t>歌手标签</t>
   </si>
   <si>
@@ -307,9 +313,30 @@
     <t>歌曲标签</t>
   </si>
   <si>
+    <t>yesterday_play_count</t>
+  </si>
+  <si>
+    <t>昨天的播放数</t>
+  </si>
+  <si>
+    <t>today_play_count</t>
+  </si>
+  <si>
+    <t>今天的播放数</t>
+  </si>
+  <si>
+    <t>total_play_count</t>
+  </si>
+  <si>
+    <t>总的播放数</t>
+  </si>
+  <si>
     <t>lyric</t>
   </si>
   <si>
+    <t>1000</t>
+  </si>
+  <si>
     <t>歌词</t>
   </si>
   <si>
@@ -322,12 +349,15 @@
     <t>专辑名称</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>专辑简介描述</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>发行公司</t>
+  </si>
+  <si>
     <t>create_time</t>
   </si>
   <si>
@@ -343,9 +373,6 @@
     <t>专辑图片</t>
   </si>
   <si>
-    <t>专辑描述</t>
-  </si>
-  <si>
     <t>专辑标签</t>
   </si>
   <si>
@@ -364,13 +391,13 @@
     <t>歌单图片</t>
   </si>
   <si>
-    <t>creater_id</t>
+    <t>creator_id</t>
   </si>
   <si>
     <t>创建者id</t>
   </si>
   <si>
-    <t>creater_nick_name</t>
+    <t>creator_nick_name</t>
   </si>
   <si>
     <t>创建者昵称</t>
@@ -385,6 +412,17 @@
     <t>收藏数</t>
   </si>
   <si>
+    <t>收录的歌曲{"id":123, "title":"歌曲名称", "singer":"GEM",
+"duration":"04:54",
+"album":"The Best of G.E.M. 2008-2012"}</t>
+  </si>
+  <si>
+    <t>share_count</t>
+  </si>
+  <si>
+    <t>分享次数</t>
+  </si>
+  <si>
     <t>歌单标签["流行", "轻音乐"]</t>
   </si>
   <si>
@@ -403,18 +441,12 @@
     <t>500</t>
   </si>
   <si>
-    <t>评论的内容</t>
-  </si>
-  <si>
-    <t>timestamp</t>
+    <t>评论的内容,仅支持文字</t>
   </si>
   <si>
     <t>评论时间</t>
   </si>
   <si>
-    <t>current_timestamp</t>
-  </si>
-  <si>
     <t>thumb_number</t>
   </si>
   <si>
@@ -433,7 +465,7 @@
     <t>评论者id</t>
   </si>
   <si>
-    <t>commentator_cick_name</t>
+    <t>commentator_nick_name</t>
   </si>
   <si>
     <t>评论者的昵称</t>
@@ -448,13 +480,15 @@
     <t>动态表moments</t>
   </si>
   <si>
-    <t>creater_image</t>
+    <t>creator_image</t>
   </si>
   <si>
     <t>创建者头像</t>
   </si>
   <si>
-    <t>内容</t>
+    <t>{"文本":,
+"链接":"[,]",
+:}</t>
   </si>
   <si>
     <t>publish_time</t>
@@ -463,6 +497,9 @@
     <t>发布时间</t>
   </si>
   <si>
+    <t>动态类型，是转发，分享还是发布等</t>
+  </si>
+  <si>
     <t>私信表personal_message</t>
   </si>
   <si>
@@ -496,7 +533,7 @@
     <t>接收者昵称</t>
   </si>
   <si>
-    <t>receiver_iamge</t>
+    <t>receiver_image</t>
   </si>
   <si>
     <t>接收者头像</t>
@@ -524,17 +561,33 @@
   </si>
   <si>
     <t>sheet_image</t>
+  </si>
+  <si>
+    <t>管理员表administrator</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>邮箱账户</t>
+  </si>
+  <si>
+    <t>管理员密码</t>
+  </si>
+  <si>
+    <t>endline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -549,6 +602,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -574,15 +634,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,8 +664,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,88 +743,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -705,7 +758,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,13 +782,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,7 +854,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,7 +878,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,49 +902,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,61 +914,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,7 +926,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,17 +976,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,11 +1000,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,149 +1057,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1159,14 +1212,20 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1487,15 +1546,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.7166666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
     <col min="4" max="4" width="27.6" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.1333333333333" style="1" customWidth="1"/>
@@ -1545,85 +1604,85 @@
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1643,7 +1702,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1651,104 +1710,98 @@
         <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="E12" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="57" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="F13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1765,10 +1818,10 @@
         <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1785,10 +1838,10 @@
         <v>50</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1805,129 +1858,126 @@
         <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>12</v>
@@ -1935,511 +1985,516 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C33" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D33" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="A40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="3" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="2"/>
+      <c r="A42" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D42" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="C46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>12</v>
@@ -2447,140 +2502,158 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>26</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
+      <c r="A62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>12</v>
@@ -2588,206 +2661,200 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="42.75" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>107</v>
+        <v>43</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
+      <c r="A75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>12</v>
@@ -2795,743 +2862,927 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="85.5" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="1:6">
+      <c r="A85" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" ht="42.75" spans="1:6">
-      <c r="A85" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>107</v>
+      <c r="C85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A89" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" ht="28.5" spans="1:6">
-      <c r="A91" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" ht="28.5" spans="1:6">
+      <c r="A92" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>129</v>
+      <c r="D92" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>130</v>
+        <v>15</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C96" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D96" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A101" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C103" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D103" s="1" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
-        <v>144</v>
+        <v>126</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="42.75" spans="1:6">
       <c r="A107" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>132</v>
+        <v>43</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-    </row>
-    <row r="110" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" ht="28.5" spans="1:6">
+      <c r="A109" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" s="1" customFormat="1" spans="1:6">
       <c r="A110" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="F113" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="G113" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="1" t="s">
+    <row r="114" spans="1:7">
+      <c r="A114" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C114" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C115" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D115" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>130</v>
+        <v>15</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120" ht="13.5" spans="1:1">
-      <c r="A120" s="6"/>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-    </row>
-    <row r="122" s="1" customFormat="1" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" ht="13.5" spans="1:1">
+      <c r="A123" s="7"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+    </row>
+    <row r="125" s="1" customFormat="1" spans="1:7">
+      <c r="A125" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="E125" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F125" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="G125" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="1" t="s">
+    <row r="126" spans="1:7">
+      <c r="A126" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="1" t="s">
+      <c r="C126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F126" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1" t="s">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A75:G75"/>
-    <mergeCell ref="A88:G88"/>
-    <mergeCell ref="A100:G100"/>
-    <mergeCell ref="A109:G109"/>
-    <mergeCell ref="A121:G121"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="A89:G89"/>
+    <mergeCell ref="A101:G101"/>
+    <mergeCell ref="A112:G112"/>
+    <mergeCell ref="A124:G124"/>
+    <mergeCell ref="A132:G132"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
